--- a/planning 7-3-2025.xlsx
+++ b/planning 7-3-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igtop\Documents\UNI\Semestre 6\Big Data 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5017A-1967-441B-B67B-B4F8E425CB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1837618-3E95-4945-B56B-D2B562B68FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2E6DE36-335D-40FF-9487-0EE7CCA8C233}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{B2E6DE36-335D-40FF-9487-0EE7CCA8C233}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
   <si>
     <t>Proyecto</t>
   </si>
@@ -305,9 +305,6 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t>DashBoard PowerBI (Estratégico)</t>
-  </si>
-  <si>
     <t>Implementación del mapa en la web</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>Ignacio</t>
   </si>
   <si>
-    <t>Laura</t>
-  </si>
-  <si>
     <t xml:space="preserve">Víctor </t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>Aplicar patrones de diseño para nuestra web y en un futuro integración de gráficos en la vista correspondiente</t>
   </si>
   <si>
-    <t>Desarrollo del dashboard estratégico, implementando KPIs referidos a las métricas del modelo, gráficas referidas a la demanda real y prevista, distribución de anomalías, entre otras gráficas</t>
-  </si>
-  <si>
     <t>Tiempo de carga del mapa &lt;5s                Nivel de interacción con los filtros (70%)</t>
   </si>
   <si>
@@ -360,6 +351,21 @@
   </si>
   <si>
     <t>Datos en tiempo real de demanda</t>
+  </si>
+  <si>
+    <t>DashBoard PowerBI (Analítico)</t>
+  </si>
+  <si>
+    <t>Desarrollo del dashboard analítico, gráficas referidas a la demanda real y prevista, distribución de anomalías, entre otras gráficas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implementación de datawarehouse a través de SQL</t>
+  </si>
+  <si>
+    <t>Conectar base de datos con PowerBI</t>
+  </si>
+  <si>
+    <t>Laura / Andrea</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -530,6 +536,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -542,7 +585,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,12 +661,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,6 +673,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,6 +699,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -707,8 +759,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{853E7C9B-44D4-4166-BD13-61CBE34172BA}" name="Tabla1" displayName="Tabla1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D5" xr:uid="{853E7C9B-44D4-4166-BD13-61CBE34172BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{853E7C9B-44D4-4166-BD13-61CBE34172BA}" name="Tabla1" displayName="Tabla1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D7" xr:uid="{853E7C9B-44D4-4166-BD13-61CBE34172BA}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0248B94B-D9C1-471E-8241-87AD632855D2}" name="Tareas" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{27EF43AE-565A-4310-A2E8-8C6AA7B17228}" name="Responsable" dataDxfId="2"/>
@@ -1038,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7B8D57-0D3C-46FF-8F6A-29A71CB31B59}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
@@ -1054,10 +1106,10 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1070,7 +1122,7 @@
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1081,10 +1133,10 @@
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1097,38 +1149,38 @@
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1137,11 +1189,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1150,12 +1202,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="17" t="s">
         <v>8</v>
       </c>
@@ -1167,12 +1219,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="18" t="s">
         <v>38</v>
       </c>
@@ -1184,12 +1236,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="19" t="s">
         <v>38</v>
       </c>
@@ -1201,12 +1253,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="19" t="s">
         <v>38</v>
       </c>
@@ -1218,12 +1270,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="A10" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="19" t="s">
         <v>38</v>
       </c>
@@ -1235,24 +1287,24 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="19"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="15" t="s">
         <v>13</v>
       </c>
@@ -1261,15 +1313,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27" t="s">
+      <c r="A13" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="16" t="s">
         <v>31</v>
       </c>
@@ -1278,15 +1330,15 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="16" t="s">
         <v>31</v>
       </c>
@@ -1305,6 +1357,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
@@ -1316,12 +1374,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1737,7 +1789,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1760,7 +1812,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="7" t="s">
         <v>84</v>
       </c>
@@ -1784,7 +1836,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="7" t="s">
         <v>73</v>
       </c>
@@ -1808,7 +1860,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="7" t="s">
         <v>74</v>
       </c>
@@ -1832,7 +1884,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1850,12 +1902,12 @@
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
@@ -1871,10 +1923,10 @@
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="7" t="s">
         <v>52</v>
       </c>
@@ -1890,10 +1942,10 @@
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1916,7 +1968,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="7" t="s">
         <v>58</v>
       </c>
@@ -1937,7 +1989,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1960,7 +2012,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="23" t="s">
         <v>77</v>
       </c>
@@ -1997,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30578E66-3B3F-471A-8958-741231B10BEB}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2030,74 +2082,82 @@
         <v>85</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="41"/>
+      <c r="B4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="42"/>
+      <c r="B5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="25"/>
-    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
@@ -2159,20 +2219,32 @@
       <c r="C19" s="39"/>
       <c r="D19" s="25"/>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
